--- a/BioSTEAM 2.x.x/biorefineries/LAOs/results/MPSP vs glucose price.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/LAOs/results/MPSP vs glucose price.xlsx
@@ -695,154 +695,154 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>351.5038202730446</v>
+        <v>345.7096700033408</v>
       </c>
       <c r="C3">
-        <v>385.8565563029139</v>
+        <v>380.064859628955</v>
       </c>
       <c r="D3">
-        <v>420.2092923327833</v>
+        <v>414.4200492545692</v>
       </c>
       <c r="E3">
-        <v>454.5620283626527</v>
+        <v>448.7752388801832</v>
       </c>
       <c r="F3">
-        <v>488.9147643925219</v>
+        <v>483.1304285057973</v>
       </c>
       <c r="G3">
-        <v>523.2675004223914</v>
+        <v>517.4856181314115</v>
       </c>
       <c r="H3">
-        <v>557.6202364522607</v>
+        <v>551.8408077570257</v>
       </c>
       <c r="I3">
-        <v>591.97297248213</v>
+        <v>586.1959973826397</v>
       </c>
       <c r="J3">
-        <v>626.3257085119994</v>
+        <v>620.5511870082538</v>
       </c>
       <c r="K3">
-        <v>660.6784445418687</v>
+        <v>654.906376633868</v>
       </c>
       <c r="L3">
-        <v>695.0311805717379</v>
+        <v>689.2615662594819</v>
       </c>
       <c r="M3">
-        <v>729.3839166016076</v>
+        <v>723.6167558850962</v>
       </c>
       <c r="N3">
-        <v>763.7366526314767</v>
+        <v>757.9719455107105</v>
       </c>
       <c r="O3">
-        <v>798.0893886613461</v>
+        <v>792.3271351363244</v>
       </c>
       <c r="P3">
-        <v>832.4421246912153</v>
+        <v>826.6823247619386</v>
       </c>
       <c r="Q3">
-        <v>866.7948607210844</v>
+        <v>861.0375143875527</v>
       </c>
       <c r="R3">
-        <v>901.147596750954</v>
+        <v>895.3927040131671</v>
       </c>
       <c r="S3">
-        <v>935.5003327808233</v>
+        <v>929.7478936387809</v>
       </c>
       <c r="T3">
-        <v>969.8530688106927</v>
+        <v>964.1030832643951</v>
       </c>
       <c r="U3">
-        <v>1004.205804840562</v>
+        <v>998.4582728900093</v>
       </c>
       <c r="V3">
-        <v>1038.558540870431</v>
+        <v>1032.813462515624</v>
       </c>
       <c r="W3">
-        <v>1072.9112769003</v>
+        <v>1067.168652141238</v>
       </c>
       <c r="X3">
-        <v>1107.26401293017</v>
+        <v>1101.523841766852</v>
       </c>
       <c r="Y3">
-        <v>1141.616748960039</v>
+        <v>1135.879031392466</v>
       </c>
       <c r="Z3">
-        <v>1175.969484989909</v>
+        <v>1170.23422101808</v>
       </c>
       <c r="AA3">
-        <v>1210.322221019778</v>
+        <v>1204.589410643694</v>
       </c>
       <c r="AB3">
-        <v>1244.674957049647</v>
+        <v>1238.944600269308</v>
       </c>
       <c r="AC3">
-        <v>1279.027693079516</v>
+        <v>1273.299789894922</v>
       </c>
       <c r="AD3">
-        <v>1313.380429109387</v>
+        <v>1307.654979520536</v>
       </c>
       <c r="AE3">
-        <v>1347.733165139256</v>
+        <v>1342.01016914615</v>
       </c>
       <c r="AF3">
-        <v>1382.085901169125</v>
+        <v>1376.365358771764</v>
       </c>
       <c r="AG3">
-        <v>1416.438637198994</v>
+        <v>1410.720548397379</v>
       </c>
       <c r="AH3">
-        <v>1450.791373228864</v>
+        <v>1445.075738022993</v>
       </c>
       <c r="AI3">
-        <v>1485.144109258733</v>
+        <v>1479.430927648607</v>
       </c>
       <c r="AJ3">
-        <v>1519.496845288602</v>
+        <v>1513.786117274221</v>
       </c>
       <c r="AK3">
-        <v>1553.849581318472</v>
+        <v>1548.141306899835</v>
       </c>
       <c r="AL3">
-        <v>1588.202317348341</v>
+        <v>1582.496496525449</v>
       </c>
       <c r="AM3">
-        <v>1622.55505337821</v>
+        <v>1616.851686151063</v>
       </c>
       <c r="AN3">
-        <v>1656.90778940808</v>
+        <v>1651.206875776677</v>
       </c>
       <c r="AO3">
-        <v>1691.260525437949</v>
+        <v>1685.562065402292</v>
       </c>
       <c r="AP3">
-        <v>1725.613261467818</v>
+        <v>1719.917255027906</v>
       </c>
       <c r="AQ3">
-        <v>1759.965997497688</v>
+        <v>1754.27244465352</v>
       </c>
       <c r="AR3">
-        <v>1794.318733527557</v>
+        <v>1788.627634279134</v>
       </c>
       <c r="AS3">
-        <v>1828.671469557426</v>
+        <v>1822.982823904748</v>
       </c>
       <c r="AT3">
-        <v>1863.024205587296</v>
+        <v>1857.338013530362</v>
       </c>
       <c r="AU3">
-        <v>1897.376941617165</v>
+        <v>1891.693203155976</v>
       </c>
       <c r="AV3">
-        <v>1931.729677647035</v>
+        <v>1926.04839278159</v>
       </c>
       <c r="AW3">
-        <v>1966.082413676904</v>
+        <v>1960.403582407205</v>
       </c>
       <c r="AX3">
-        <v>2000.435149706773</v>
+        <v>1994.758772032819</v>
       </c>
       <c r="AY3">
-        <v>2034.787885736642</v>
+        <v>2029.113961658433</v>
       </c>
     </row>
   </sheetData>
